--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -634,6 +634,26 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png")</f>
         <v/>
       </c>
+      <c r="U2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -703,6 +723,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png")</f>
         <v/>
       </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -772,6 +808,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png")</f>
         <v/>
       </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -841,6 +893,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png")</f>
         <v/>
       </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -2502,6 +2570,26 @@
         <v>0</v>
       </c>
       <c r="R33" s="2" t="inlineStr"/>
+      <c r="U33">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png")</f>
+        <v/>
+      </c>
+      <c r="V33">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W33">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X33">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y33">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx; "A 31572-2023")</f>
         <v/>
       </c>
     </row>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx"; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx; "A 32292-2023")</f>
         <v/>
       </c>
     </row>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx"; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx; "A 32299-2023")</f>
         <v/>
       </c>
     </row>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx"; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx; "A 32785-2023")</f>
         <v/>
       </c>
     </row>
@@ -2571,23 +2571,23 @@
       </c>
       <c r="R33" s="2" t="inlineStr"/>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx; "A 31569-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -631,27 +631,27 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx"; "A 31572-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "A 31572-2023")</f>
         <v/>
       </c>
     </row>
@@ -720,23 +720,23 @@
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png"; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx"; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx"; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx"; "A 32292-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "A 32292-2023")</f>
         <v/>
       </c>
     </row>
@@ -805,23 +805,23 @@
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png"; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx"; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx"; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx"; "A 32299-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "A 32299-2023")</f>
         <v/>
       </c>
     </row>
@@ -890,23 +890,23 @@
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png"; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx"; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx"; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx"; "A 32785-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "A 32785-2023")</f>
         <v/>
       </c>
     </row>
@@ -2571,23 +2571,23 @@
       </c>
       <c r="R33" s="2" t="inlineStr"/>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png"; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx"; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx"; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx"; "A 31569-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "A 31569-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -2571,23 +2571,23 @@
       </c>
       <c r="R33" s="2" t="inlineStr"/>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png"; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx"; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx"; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx"; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -2571,23 +2571,23 @@
       </c>
       <c r="R33" s="2" t="inlineStr"/>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -650,9 +650,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "A 31572-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -735,9 +736,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx")</f>
-        <v/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "A 32292-2023")</t>
+        </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -820,9 +822,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx")</f>
-        <v/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "A 32299-2023")</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -905,9 +908,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx")</f>
-        <v/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "A 32785-2023")</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -2586,9 +2590,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx")</f>
-        <v/>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "A 31569-2023")</t>
+        </is>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,33 +627,32 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx, "A 31572-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx"; "A 31572-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx", "A 31572-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -666,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,29 +716,28 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx, "A 32292-2023"")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx"; "A 32292-2023")</t>
-        </is>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx", "A 32292-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -752,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -803,29 +801,28 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx, "A 32299-2023"")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx"; "A 32299-2023")</t>
-        </is>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx", "A 32299-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -838,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -889,29 +886,28 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx, "A 32785-2023"")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx"; "A 32785-2023")</t>
-        </is>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx", "A 32785-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -924,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -986,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1048,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1110,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1172,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1229,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1286,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1343,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1400,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1457,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1514,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1576,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1638,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1695,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1757,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1819,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1881,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1943,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2005,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2062,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2119,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2176,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2238,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2295,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2357,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2414,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2471,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2528,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2575,25 +2571,24 @@
       </c>
       <c r="R33" s="2" t="inlineStr"/>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx"; "A 31569-2023")</t>
-        </is>
+      <c r="Y33">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx", "A 31569-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
@@ -2606,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2663,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2720,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2777,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2834,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2891,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2948,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3005,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3067,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3129,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3186,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3248,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3310,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3372,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3429,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3491,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3548,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3610,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3672,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3729,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3791,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3853,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3915,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3977,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4039,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4096,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4158,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4215,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4272,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4329,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4386,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4443,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4500,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4557,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4614,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4671,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4733,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4790,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4852,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4914,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4976,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5033,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5090,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5147,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5209,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5271,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5333,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5395,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx, "A 31572-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="T2">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx, "A 32292-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="T3">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx, "A 32299-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="T4">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx, "A 32785-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="T5">

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 31572-2023.xlsx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 31572-2023.xlsx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 31572-2023.png", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 31572-2023.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31572-2023.png", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31572-2023.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31572-2023.docx", "A 31572-2023")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32292-2023.xlsx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32292-2023.xlsx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32292-2023.png", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32292-2023.png", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32292-2023.docx", "A 32292-2023")</f>
         <v/>
       </c>
     </row>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32299-2023.xlsx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32299-2023.xlsx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32299-2023.png", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32299-2023.png", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32299-2023.docx", "A 32299-2023")</f>
         <v/>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/artfynd/A 32785-2023.xlsx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32785-2023.xlsx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/kartor/A 32785-2023.png", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32785-2023.png", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32785-2023.docx", "A 32785-2023")</f>
         <v/>
       </c>
     </row>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2571,23 +2571,23 @@
       </c>
       <c r="R33" s="2" t="inlineStr"/>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/knärot/A 31569-2023.png", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31569-2023.png", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomål/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/klagomålsmail/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsyn/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_HEBY/tillsynsmail/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31569-2023.docx", "A 31569-2023")</f>
         <v/>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 31572-2023.xlsx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 31572-2023 artfynd.xlsx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 31572-2023.png", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 31572-2023 karta.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31572-2023.png", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31572-2023 karta knärot.png", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31572-2023 fsc-klagomål.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31572-2023 fsc-klagomål mail.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31572-2023 tillsynsbegäran.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31572-2023.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 31572-2023 tillsynsbegäran mail.docx", "A 31572-2023")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -716,27 +716,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32292-2023.xlsx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32292-2023 artfynd.xlsx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32292-2023.png", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32292-2023 karta.png", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32292-2023 fsc-klagomål.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32292-2023 fsc-klagomål mail.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32292-2023 tillsynsbegäran.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32292-2023.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32292-2023 tillsynsbegäran mail.docx", "A 32292-2023")</f>
         <v/>
       </c>
     </row>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32299-2023.xlsx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32299-2023 artfynd.xlsx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32299-2023.png", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32299-2023 karta.png", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32299-2023 fsc-klagomål.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32299-2023 fsc-klagomål mail.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32299-2023 tillsynsbegäran.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32299-2023.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32299-2023 tillsynsbegäran mail.docx", "A 32299-2023")</f>
         <v/>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32785-2023.xlsx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/artfynd/A 32785-2023 artfynd.xlsx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32785-2023.png", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/kartor/A 32785-2023 karta.png", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32785-2023 fsc-klagomål.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32785-2023 fsc-klagomål mail.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 32785-2023 tillsynsbegäran.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32785-2023.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32785-2023 tillsynsbegäran mail.docx", "A 32785-2023")</f>
         <v/>
       </c>
     </row>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2571,23 +2571,23 @@
       </c>
       <c r="R33" s="2" t="inlineStr"/>
       <c r="U33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31569-2023.png", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/knärot/A 31569-2023 karta knärot.png", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31569-2023 fsc-klagomål.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31569-2023 fsc-klagomål mail.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsyn/A 31569-2023 tillsynsbegäran.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31569-2023.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 31569-2023 tillsynsbegäran mail.docx", "A 31569-2023")</f>
         <v/>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -639,11 +639,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31572-2023 fsc-klagomål.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31572-2023 FSC-klagomål.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31572-2023 fsc-klagomål mail.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31572-2023 FSC-klagomål mail.docx", "A 31572-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -651,7 +651,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 31572-2023 tillsynsbegäran mail.docx", "A 31572-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31572-2023 tillsynsbegäran mail.docx", "A 31572-2023")</f>
         <v/>
       </c>
     </row>
@@ -724,11 +724,11 @@
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32292-2023 fsc-klagomål.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32292-2023 FSC-klagomål.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32292-2023 fsc-klagomål mail.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32292-2023 FSC-klagomål mail.docx", "A 32292-2023")</f>
         <v/>
       </c>
       <c r="X3">
@@ -736,7 +736,7 @@
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32292-2023 tillsynsbegäran mail.docx", "A 32292-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32292-2023 tillsynsbegäran mail.docx", "A 32292-2023")</f>
         <v/>
       </c>
     </row>
@@ -809,11 +809,11 @@
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32299-2023 fsc-klagomål.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32299-2023 FSC-klagomål.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32299-2023 fsc-klagomål mail.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32299-2023 FSC-klagomål mail.docx", "A 32299-2023")</f>
         <v/>
       </c>
       <c r="X4">
@@ -821,7 +821,7 @@
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32299-2023 tillsynsbegäran mail.docx", "A 32299-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32299-2023 tillsynsbegäran mail.docx", "A 32299-2023")</f>
         <v/>
       </c>
     </row>
@@ -894,11 +894,11 @@
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32785-2023 fsc-klagomål.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 32785-2023 FSC-klagomål.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32785-2023 fsc-klagomål mail.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 32785-2023 FSC-klagomål mail.docx", "A 32785-2023")</f>
         <v/>
       </c>
       <c r="X5">
@@ -906,7 +906,7 @@
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 32785-2023 tillsynsbegäran mail.docx", "A 32785-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 32785-2023 tillsynsbegäran mail.docx", "A 32785-2023")</f>
         <v/>
       </c>
     </row>
@@ -2575,11 +2575,11 @@
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31569-2023 fsc-klagomål.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomål/A 31569-2023 FSC-klagomål.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31569-2023 fsc-klagomål mail.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/klagomålsmail/A 31569-2023 FSC-klagomål mail.docx", "A 31569-2023")</f>
         <v/>
       </c>
       <c r="X33">
@@ -2587,7 +2587,7 @@
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/ti,llsynsmail/A 31569-2023 tillsynsbegäran mail.docx", "A 31569-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0331/tillsynsmail/A 31569-2023 tillsynsbegäran mail.docx", "A 31569-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>

--- a/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
+++ b/Logging_UPPSALA_LAN/Översikt UPPSALA LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45117</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>45120</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>45120</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45124</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1044,7 +1044,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         <v>45112</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
         <v>45112</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
         <v>45112</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45113</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>45117</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45117</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>45117</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>45117</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>45117</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45117</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>45117</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45118</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>45120</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         <v>45120</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>45120</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>45121</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45121</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>45121</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>45121</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45121</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         <v>45121</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45121</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>45123</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>45123</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>45126</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>45127</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45127</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
         <v>45128</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45130</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45131</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45131</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45131</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45132</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45133</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45133</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>45133</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>45133</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         <v>45133</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
         <v>45134</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5085,7 +5085,7 @@
         <v>45135</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45135</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45135</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45135</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
         <v>45135</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45138</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
